--- a/dados/supremadistribuidoraeireli.xlsx
+++ b/dados/supremadistribuidoraeireli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>politica</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>full</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -471,17 +481,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:579560342#searchVariation=MLB24834408&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=53f7a1ba-9a07-401d-9fbc-bcb6966ab0b8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:579560342#searchVariation=MLB24834408&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=fcb65d1f-f75f-446f-be9b-0fcf1857cef8</t>
         </is>
       </c>
     </row>
@@ -496,17 +516,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:579560342#searchVariation=MLB21455208&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=53f7a1ba-9a07-401d-9fbc-bcb6966ab0b8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:579560342#searchVariation=MLB21455208&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=fcb65d1f-f75f-446f-be9b-0fcf1857cef8</t>
         </is>
       </c>
     </row>
@@ -521,17 +551,23 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:579560342#searchVariation=MLB27687422&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=53f7a1ba-9a07-401d-9fbc-bcb6966ab0b8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:579560342#searchVariation=MLB27687422&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=fcb65d1f-f75f-446f-be9b-0fcf1857cef8</t>
         </is>
       </c>
     </row>
@@ -546,17 +582,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-bob-storm-200a-slim-bivolt-automatico-jfa-cor-preto/p/MLB27156459?pdp_filters=seller_id:579560342#searchVariation=MLB27156459&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=53f7a1ba-9a07-401d-9fbc-bcb6966ab0b8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-bob-storm-200a-slim-bivolt-automatico-jfa-cor-preto/p/MLB27156459?pdp_filters=seller_id:579560342#searchVariation=MLB27156459&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=fcb65d1f-f75f-446f-be9b-0fcf1857cef8</t>
         </is>
       </c>
     </row>
@@ -571,17 +617,23 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:579560342#searchVariation=MLB34210379&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=53f7a1ba-9a07-401d-9fbc-bcb6966ab0b8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:579560342#searchVariation=MLB34210379&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=fcb65d1f-f75f-446f-be9b-0fcf1857cef8</t>
         </is>
       </c>
     </row>
@@ -596,17 +648,23 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB33922926?pdp_filters=seller_id:579560342#searchVariation=MLB33922926&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=53f7a1ba-9a07-401d-9fbc-bcb6966ab0b8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB33922926?pdp_filters=seller_id:579560342#searchVariation=MLB33922926&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=fcb65d1f-f75f-446f-be9b-0fcf1857cef8</t>
         </is>
       </c>
     </row>
@@ -621,17 +679,23 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB34245679?pdp_filters=seller_id:579560342#searchVariation=MLB34245679&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=53f7a1ba-9a07-401d-9fbc-bcb6966ab0b8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB34245679?pdp_filters=seller_id:579560342#searchVariation=MLB34245679&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=fcb65d1f-f75f-446f-be9b-0fcf1857cef8</t>
         </is>
       </c>
     </row>
@@ -646,17 +710,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2808437099-fonte-carregador-jfa-70-amperes-slim-bivolt-c-voltimetro-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53f7a1ba-9a07-401d-9fbc-bcb6966ab0b8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2808437099-fonte-carregador-jfa-70-amperes-slim-bivolt-c-voltimetro-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfcb65d1f-f75f-446f-be9b-0fcf1857cef8</t>
         </is>
       </c>
     </row>
@@ -671,17 +745,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2753133396-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53f7a1ba-9a07-401d-9fbc-bcb6966ab0b8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2753133396-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfcb65d1f-f75f-446f-be9b-0fcf1857cef8</t>
         </is>
       </c>
     </row>
@@ -696,17 +780,23 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2715487599-controle-longa-distancia-jfa-k1200-alcance-1200-mt-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53f7a1ba-9a07-401d-9fbc-bcb6966ab0b8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2715487599-controle-longa-distancia-jfa-k1200-alcance-1200-mt-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfcb65d1f-f75f-446f-be9b-0fcf1857cef8</t>
         </is>
       </c>
     </row>
@@ -717,21 +807,27 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>60.9</v>
+        <v>60.8</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2069718298-controle-longa-distancia-jfa-k600-600-metros-completo-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53f7a1ba-9a07-401d-9fbc-bcb6966ab0b8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2069718298-controle-longa-distancia-jfa-k600-600-metros-completo-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfcb65d1f-f75f-446f-be9b-0fcf1857cef8</t>
         </is>
       </c>
     </row>
@@ -746,17 +842,23 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2753158506-controle-longa-distncia-jfa-aqua-1200metros-branco-completo-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53f7a1ba-9a07-401d-9fbc-bcb6966ab0b8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2753158506-controle-longa-distncia-jfa-aqua-1200metros-branco-completo-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfcb65d1f-f75f-446f-be9b-0fcf1857cef8</t>
         </is>
       </c>
     </row>
@@ -771,217 +873,252 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2069705706-controle-longa-distancia-jfa-redline-wr-paparelho-original-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53f7a1ba-9a07-401d-9fbc-bcb6966ab0b8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2069705706-controle-longa-distancia-jfa-redline-wr-paparelho-original-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfcb65d1f-f75f-446f-be9b-0fcf1857cef8</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa Storm 200a Monovolt Sci 220v</t>
+          <t>Fonte Automotiva Jfa 200a Storm Voltímetro Digital Mono 220v</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>815.66</v>
+        <v>736.61</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3248034663-fonte-carregador-automotiva-jfa-storm-200a-monovolt-sci-220v-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53f7a1ba-9a07-401d-9fbc-bcb6966ab0b8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3250326563-fonte-automotiva-jfa-200a-storm-voltimetro-digital-mono-220v-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfcb65d1f-f75f-446f-be9b-0fcf1857cef8</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a Storm Voltímetro Digital Mono 220v</t>
+          <t>Filtro Anti-ruido Jfa Com Blindagem Eletromagnética 20/20k</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>736.61</v>
+        <v>61.2</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3250326563-fonte-automotiva-jfa-200a-storm-voltimetro-digital-mono-220v-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53f7a1ba-9a07-401d-9fbc-bcb6966ab0b8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2139862487-filtro-anti-ruido-jfa-com-blindagem-eletromagnetica-2020k-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfcb65d1f-f75f-446f-be9b-0fcf1857cef8</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Filtro Anti-ruido Jfa Com Blindagem Eletromagnética 20/20k</t>
+          <t>Carregador De Bateria Carro Jfa 60a Redline Sci Portatil</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>61.2</v>
+        <v>565.7</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2139862487-filtro-anti-ruido-jfa-com-blindagem-eletromagnetica-2020k-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53f7a1ba-9a07-401d-9fbc-bcb6966ab0b8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2751443168-carregador-de-bateria-carro-jfa-60a-redline-sci-portatil-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfcb65d1f-f75f-446f-be9b-0fcf1857cef8</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Carregador De Bateria Carro Jfa 60a Redline Sci Portatil</t>
+          <t>Carregador Jfa Storm 200a 12v 14,4v Smart Cca Sci 220v Mono</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>565.7</v>
+        <v>736.61</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2751443168-carregador-de-bateria-carro-jfa-60a-redline-sci-portatil-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53f7a1ba-9a07-401d-9fbc-bcb6966ab0b8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3246945241-carregador-jfa-storm-200a-12v-144v-smart-cca-sci-220v-mono-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfcb65d1f-f75f-446f-be9b-0fcf1857cef8</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Carregador Jfa Storm 200a 12v 14,4v Smart Cca Sci 220v Mono</t>
+          <t>Controle Longa Distância Jfa Aqua 1200 Metros Preto Completo</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>736.61</v>
+        <v>90.98999999999999</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3246945241-carregador-jfa-storm-200a-12v-144v-smart-cca-sci-220v-mono-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53f7a1ba-9a07-401d-9fbc-bcb6966ab0b8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2753141762-controle-longa-distncia-jfa-aqua-1200-metros-preto-completo-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfcb65d1f-f75f-446f-be9b-0fcf1857cef8</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Aqua 1200 Metros Preto Completo</t>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>90.98999999999999</v>
+        <v>736.61</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2753141762-controle-longa-distncia-jfa-aqua-1200-metros-preto-completo-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53f7a1ba-9a07-401d-9fbc-bcb6966ab0b8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:579560342#searchVariation=MLB24006449&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=fcb65d1f-f75f-446f-be9b-0fcf1857cef8</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>Controle Longa Distancia Jfa Redline Wr P Aparelho Original</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>736.61</v>
+        <v>76.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:579560342#searchVariation=MLB24006449&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=53f7a1ba-9a07-401d-9fbc-bcb6966ab0b8</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Controle Longa Distancia Jfa Redline Wr P Aparelho Original</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>76.5</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2715542194-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53f7a1ba-9a07-401d-9fbc-bcb6966ab0b8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2715542194-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfcb65d1f-f75f-446f-be9b-0fcf1857cef8</t>
         </is>
       </c>
     </row>

--- a/dados/supremadistribuidoraeireli.xlsx
+++ b/dados/supremadistribuidoraeireli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>preco</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>modelo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -476,14 +476,14 @@
           <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>657.1900000000001</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -501,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:579560342#searchVariation=MLB24834408&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=fcb65d1f-f75f-446f-be9b-0fcf1857cef8</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:579560342#searchVariation=MLB24834408&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=578ea4de-b72c-475a-a702-ddfcd22ef80a</t>
         </is>
       </c>
     </row>
@@ -511,14 +511,14 @@
           <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>523.63</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -536,7 +536,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:579560342#searchVariation=MLB21455208&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=fcb65d1f-f75f-446f-be9b-0fcf1857cef8</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:579560342#searchVariation=MLB21455208&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=578ea4de-b72c-475a-a702-ddfcd22ef80a</t>
         </is>
       </c>
     </row>
@@ -546,13 +546,13 @@
           <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>69.43000000000001</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:579560342#searchVariation=MLB27687422&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=fcb65d1f-f75f-446f-be9b-0fcf1857cef8</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:579560342#searchVariation=MLB27687422&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=578ea4de-b72c-475a-a702-ddfcd22ef80a</t>
         </is>
       </c>
     </row>
@@ -577,14 +577,14 @@
           <t>Fonte Carregador Bob Storm 200a Slim Bivolt Automático - Jfa Cor Preto</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>624.33</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -602,7 +602,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-bob-storm-200a-slim-bivolt-automatico-jfa-cor-preto/p/MLB27156459?pdp_filters=seller_id:579560342#searchVariation=MLB27156459&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=fcb65d1f-f75f-446f-be9b-0fcf1857cef8</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-bob-storm-200a-slim-bivolt-automatico-jfa-cor-preto/p/MLB27156459?pdp_filters=seller_id:579560342#searchVariation=MLB27156459&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=578ea4de-b72c-475a-a702-ddfcd22ef80a</t>
         </is>
       </c>
     </row>
@@ -612,13 +612,13 @@
           <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>64.89</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:579560342#searchVariation=MLB34210379&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=fcb65d1f-f75f-446f-be9b-0fcf1857cef8</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:579560342#searchVariation=MLB34210379&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=578ea4de-b72c-475a-a702-ddfcd22ef80a</t>
         </is>
       </c>
     </row>
@@ -643,13 +643,13 @@
           <t>Controle Longa Distancia Jfa K1200 Alcance De 1200 Metros</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>64.89</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB33922926?pdp_filters=seller_id:579560342#searchVariation=MLB33922926&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=fcb65d1f-f75f-446f-be9b-0fcf1857cef8</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB33922926?pdp_filters=seller_id:579560342#searchVariation=MLB33922926&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=578ea4de-b72c-475a-a702-ddfcd22ef80a</t>
         </is>
       </c>
     </row>
@@ -674,13 +674,13 @@
           <t>Controle Longa Distancia Jfa K1200 Alcance De 1200 Metros</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>64.89</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
@@ -695,7 +695,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB34245679?pdp_filters=seller_id:579560342#searchVariation=MLB34245679&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=fcb65d1f-f75f-446f-be9b-0fcf1857cef8</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB34245679?pdp_filters=seller_id:579560342#searchVariation=MLB34245679&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=578ea4de-b72c-475a-a702-ddfcd22ef80a</t>
         </is>
       </c>
     </row>
@@ -705,14 +705,14 @@
           <t xml:space="preserve">Fonte Carregador Jfa 70 Amperes Slim Bivolt C/ Voltímetro </t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>519.39</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -730,7 +730,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2808437099-fonte-carregador-jfa-70-amperes-slim-bivolt-c-voltimetro-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfcb65d1f-f75f-446f-be9b-0fcf1857cef8</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2808437099-fonte-carregador-jfa-70-amperes-slim-bivolt-c-voltimetro-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D578ea4de-b72c-475a-a702-ddfcd22ef80a</t>
         </is>
       </c>
     </row>
@@ -740,14 +740,14 @@
           <t>Fonte Carregador Jfa Bob Storm 200a Bivolt</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>694.8200000000001</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -765,7 +765,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2753133396-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfcb65d1f-f75f-446f-be9b-0fcf1857cef8</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2753133396-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D578ea4de-b72c-475a-a702-ddfcd22ef80a</t>
         </is>
       </c>
     </row>
@@ -775,13 +775,13 @@
           <t xml:space="preserve">Controle Longa Distancia Jfa K1200 Alcance 1200 Mt </t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>81.8</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2715487599-controle-longa-distancia-jfa-k1200-alcance-1200-mt-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfcb65d1f-f75f-446f-be9b-0fcf1857cef8</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2715487599-controle-longa-distancia-jfa-k1200-alcance-1200-mt-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D578ea4de-b72c-475a-a702-ddfcd22ef80a</t>
         </is>
       </c>
     </row>
@@ -806,13 +806,13 @@
           <t>Controle Longa Distancia Jfa K600 600 Metros Completo</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>60.8</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2069718298-controle-longa-distancia-jfa-k600-600-metros-completo-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfcb65d1f-f75f-446f-be9b-0fcf1857cef8</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2069718298-controle-longa-distancia-jfa-k600-600-metros-completo-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D578ea4de-b72c-475a-a702-ddfcd22ef80a</t>
         </is>
       </c>
     </row>
@@ -837,13 +837,13 @@
           <t>Controle Longa Distância Jfa Aqua 1200metros Branco Completo</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>90.98999999999999</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2753158506-controle-longa-distncia-jfa-aqua-1200metros-branco-completo-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfcb65d1f-f75f-446f-be9b-0fcf1857cef8</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2753158506-controle-longa-distncia-jfa-aqua-1200metros-branco-completo-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D578ea4de-b72c-475a-a702-ddfcd22ef80a</t>
         </is>
       </c>
     </row>
@@ -868,13 +868,13 @@
           <t>Controle Longa Distancia Jfa Redline Wr P/aparelho Original</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>98.98</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
@@ -889,29 +889,25 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2069705706-controle-longa-distancia-jfa-redline-wr-paparelho-original-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfcb65d1f-f75f-446f-be9b-0fcf1857cef8</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2069705706-controle-longa-distancia-jfa-redline-wr-paparelho-original-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D578ea4de-b72c-475a-a702-ddfcd22ef80a</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a Storm Voltímetro Digital Mono 220v</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>736.61</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>FONTE 200 MONO</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Fonte Carregador Automotiva Jfa Storm 200a Monovolt Sci 220v</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>815.66</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>NA</t>
@@ -919,28 +915,28 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3250326563-fonte-automotiva-jfa-200a-storm-voltimetro-digital-mono-220v-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfcb65d1f-f75f-446f-be9b-0fcf1857cef8</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3248034663-fonte-carregador-automotiva-jfa-storm-200a-monovolt-sci-220v-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D578ea4de-b72c-475a-a702-ddfcd22ef80a</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Filtro Anti-ruido Jfa Com Blindagem Eletromagnética 20/20k</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>61.2</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t>Fonte Automotiva Jfa 200a Storm Voltímetro Digital Mono 220v</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>736.61</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
@@ -955,23 +951,23 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2139862487-filtro-anti-ruido-jfa-com-blindagem-eletromagnetica-2020k-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfcb65d1f-f75f-446f-be9b-0fcf1857cef8</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3250326563-fonte-automotiva-jfa-200a-storm-voltimetro-digital-mono-220v-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D578ea4de-b72c-475a-a702-ddfcd22ef80a</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Carregador De Bateria Carro Jfa 60a Redline Sci Portatil</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>565.7</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Filtro Anti-ruido Jfa Com Blindagem Eletromagnética 20/20k</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>61.2</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
@@ -986,27 +982,27 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2751443168-carregador-de-bateria-carro-jfa-60a-redline-sci-portatil-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfcb65d1f-f75f-446f-be9b-0fcf1857cef8</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2139862487-filtro-anti-ruido-jfa-com-blindagem-eletromagnetica-2020k-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D578ea4de-b72c-475a-a702-ddfcd22ef80a</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Carregador Jfa Storm 200a 12v 14,4v Smart Cca Sci 220v Mono</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>736.61</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>FONTE 200 MONO</t>
-        </is>
+          <t>Carregador De Bateria Carro Jfa 60a Redline Sci Portatil</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>565.7</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1021,23 +1017,23 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3246945241-carregador-jfa-storm-200a-12v-144v-smart-cca-sci-220v-mono-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfcb65d1f-f75f-446f-be9b-0fcf1857cef8</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2751443168-carregador-de-bateria-carro-jfa-60a-redline-sci-portatil-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D578ea4de-b72c-475a-a702-ddfcd22ef80a</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Aqua 1200 Metros Preto Completo</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>90.98999999999999</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t>Carregador Jfa Storm 200a 12v 14,4v Smart Cca Sci 220v Mono</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>736.61</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
@@ -1047,34 +1043,30 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2753141762-controle-longa-distncia-jfa-aqua-1200-metros-preto-completo-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfcb65d1f-f75f-446f-be9b-0fcf1857cef8</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3246945241-carregador-jfa-storm-200a-12v-144v-smart-cca-sci-220v-mono-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D578ea4de-b72c-475a-a702-ddfcd22ef80a</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>736.61</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>FONTE 200 MONO</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Controle Longa Distância Jfa Aqua 1200 Metros Preto Completo</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>90.98999999999999</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1082,28 +1074,28 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:579560342#searchVariation=MLB24006449&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=fcb65d1f-f75f-446f-be9b-0fcf1857cef8</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2753141762-controle-longa-distncia-jfa-aqua-1200-metros-preto-completo-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D578ea4de-b72c-475a-a702-ddfcd22ef80a</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr P Aparelho Original</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>76.5</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>736.61</v>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
@@ -1118,7 +1110,38 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2715542194-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfcb65d1f-f75f-446f-be9b-0fcf1857cef8</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:579560342#searchVariation=MLB24006449&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=578ea4de-b72c-475a-a702-ddfcd22ef80a</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa Redline Wr P Aparelho Original</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2715542194-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D578ea4de-b72c-475a-a702-ddfcd22ef80a</t>
         </is>
       </c>
     </row>

--- a/dados/supremadistribuidoraeireli.xlsx
+++ b/dados/supremadistribuidoraeireli.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:579560342#searchVariation=MLB24834408&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=578ea4de-b72c-475a-a702-ddfcd22ef80a</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:579560342#searchVariation=MLB24834408&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=01d5f9ed-8810-49fb-b1ea-a297188f0bbb</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:579560342#searchVariation=MLB21455208&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=578ea4de-b72c-475a-a702-ddfcd22ef80a</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:579560342#searchVariation=MLB21455208&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=01d5f9ed-8810-49fb-b1ea-a297188f0bbb</t>
         </is>
       </c>
     </row>
@@ -548,13 +548,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>69.43000000000001</v>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>NA</t>
@@ -567,7 +571,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:579560342#searchVariation=MLB27687422&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=578ea4de-b72c-475a-a702-ddfcd22ef80a</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:579560342#searchVariation=MLB27687422&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=01d5f9ed-8810-49fb-b1ea-a297188f0bbb</t>
         </is>
       </c>
     </row>
@@ -602,7 +606,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-bob-storm-200a-slim-bivolt-automatico-jfa-cor-preto/p/MLB27156459?pdp_filters=seller_id:579560342#searchVariation=MLB27156459&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=578ea4de-b72c-475a-a702-ddfcd22ef80a</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-bob-storm-200a-slim-bivolt-automatico-jfa-cor-preto/p/MLB27156459?pdp_filters=seller_id:579560342#searchVariation=MLB27156459&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=01d5f9ed-8810-49fb-b1ea-a297188f0bbb</t>
         </is>
       </c>
     </row>
@@ -614,13 +618,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>64.89</v>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>NA</t>
@@ -633,7 +641,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:579560342#searchVariation=MLB34210379&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=578ea4de-b72c-475a-a702-ddfcd22ef80a</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:579560342#searchVariation=MLB34210379&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=01d5f9ed-8810-49fb-b1ea-a297188f0bbb</t>
         </is>
       </c>
     </row>
@@ -645,13 +653,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>64.89</v>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>NA</t>
@@ -664,7 +676,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB33922926?pdp_filters=seller_id:579560342#searchVariation=MLB33922926&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=578ea4de-b72c-475a-a702-ddfcd22ef80a</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB34245679?pdp_filters=seller_id:579560342#searchVariation=MLB34245679&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=01d5f9ed-8810-49fb-b1ea-a297188f0bbb</t>
         </is>
       </c>
     </row>
@@ -676,13 +688,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>64.89</v>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>NA</t>
@@ -695,27 +711,27 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB34245679?pdp_filters=seller_id:579560342#searchVariation=MLB34245679&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=578ea4de-b72c-475a-a702-ddfcd22ef80a</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB33922926?pdp_filters=seller_id:579560342#searchVariation=MLB33922926&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=01d5f9ed-8810-49fb-b1ea-a297188f0bbb</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Carregador Jfa 70 Amperes Slim Bivolt C/ Voltímetro </t>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>519.39</v>
+        <v>694.8200000000001</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -725,32 +741,32 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2808437099-fonte-carregador-jfa-70-amperes-slim-bivolt-c-voltimetro-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D578ea4de-b72c-475a-a702-ddfcd22ef80a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2753133396-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D01d5f9ed-8810-49fb-b1ea-a297188f0bbb</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt</t>
+          <t xml:space="preserve">Fonte Carregador Jfa 70 Amperes Slim Bivolt C/ Voltímetro </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>694.8200000000001</v>
+        <v>519.39</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -760,12 +776,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2753133396-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D578ea4de-b72c-475a-a702-ddfcd22ef80a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2808437099-fonte-carregador-jfa-70-amperes-slim-bivolt-c-voltimetro-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D01d5f9ed-8810-49fb-b1ea-a297188f0bbb</t>
         </is>
       </c>
     </row>
@@ -777,13 +793,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>81.8</v>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>NA</t>
@@ -796,7 +816,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2715487599-controle-longa-distancia-jfa-k1200-alcance-1200-mt-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D578ea4de-b72c-475a-a702-ddfcd22ef80a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2715487599-controle-longa-distancia-jfa-k1200-alcance-1200-mt-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D01d5f9ed-8810-49fb-b1ea-a297188f0bbb</t>
         </is>
       </c>
     </row>
@@ -808,13 +828,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>60.8</v>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>NA</t>
@@ -827,7 +851,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2069718298-controle-longa-distancia-jfa-k600-600-metros-completo-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D578ea4de-b72c-475a-a702-ddfcd22ef80a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2069718298-controle-longa-distancia-jfa-k600-600-metros-completo-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D01d5f9ed-8810-49fb-b1ea-a297188f0bbb</t>
         </is>
       </c>
     </row>
@@ -858,7 +882,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2753158506-controle-longa-distncia-jfa-aqua-1200metros-branco-completo-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D578ea4de-b72c-475a-a702-ddfcd22ef80a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2753158506-controle-longa-distncia-jfa-aqua-1200metros-branco-completo-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D01d5f9ed-8810-49fb-b1ea-a297188f0bbb</t>
         </is>
       </c>
     </row>
@@ -870,13 +894,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>98.98</v>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>NA</t>
@@ -889,7 +917,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2069705706-controle-longa-distancia-jfa-redline-wr-paparelho-original-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D578ea4de-b72c-475a-a702-ddfcd22ef80a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2069705706-controle-longa-distancia-jfa-redline-wr-paparelho-original-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D01d5f9ed-8810-49fb-b1ea-a297188f0bbb</t>
         </is>
       </c>
     </row>
@@ -901,13 +929,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>815.66</v>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>NA</t>
@@ -920,14 +952,14 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3248034663-fonte-carregador-automotiva-jfa-storm-200a-monovolt-sci-220v-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D578ea4de-b72c-475a-a702-ddfcd22ef80a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3248034663-fonte-carregador-automotiva-jfa-storm-200a-monovolt-sci-220v-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D01d5f9ed-8810-49fb-b1ea-a297188f0bbb</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a Storm Voltímetro Digital Mono 220v</t>
+          <t>Filtro Anti-ruido Jfa Com Blindagem Eletromagnética 20/20k</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -936,7 +968,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>736.61</v>
+        <v>61.2</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
@@ -951,25 +983,29 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3250326563-fonte-automotiva-jfa-200a-storm-voltimetro-digital-mono-220v-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D578ea4de-b72c-475a-a702-ddfcd22ef80a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2139862487-filtro-anti-ruido-jfa-com-blindagem-eletromagnetica-2020k-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D01d5f9ed-8810-49fb-b1ea-a297188f0bbb</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Filtro Anti-ruido Jfa Com Blindagem Eletromagnética 20/20k</t>
+          <t>Carregador De Bateria Carro Jfa 60a Redline Sci Portatil</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>61.2</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
+        <v>565.7</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>NA</t>
@@ -982,27 +1018,27 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2139862487-filtro-anti-ruido-jfa-com-blindagem-eletromagnetica-2020k-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D578ea4de-b72c-475a-a702-ddfcd22ef80a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2751443168-carregador-de-bateria-carro-jfa-60a-redline-sci-portatil-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D01d5f9ed-8810-49fb-b1ea-a297188f0bbb</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Carregador De Bateria Carro Jfa 60a Redline Sci Portatil</t>
+          <t>Carregador Jfa Storm 200a 12v 14,4v Smart Cca Sci 220v Mono</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>565.7</v>
+        <v>736.61</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1017,25 +1053,29 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2751443168-carregador-de-bateria-carro-jfa-60a-redline-sci-portatil-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D578ea4de-b72c-475a-a702-ddfcd22ef80a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3246945241-carregador-jfa-storm-200a-12v-144v-smart-cca-sci-220v-mono-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D01d5f9ed-8810-49fb-b1ea-a297188f0bbb</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Carregador Jfa Storm 200a 12v 14,4v Smart Cca Sci 220v Mono</t>
+          <t>Fonte Automotiva Jfa 200a Storm Voltímetro Digital Mono 220v</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>736.61</v>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1048,7 +1088,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3246945241-carregador-jfa-storm-200a-12v-144v-smart-cca-sci-220v-mono-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D578ea4de-b72c-475a-a702-ddfcd22ef80a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3250326563-fonte-automotiva-jfa-200a-storm-voltimetro-digital-mono-220v-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D01d5f9ed-8810-49fb-b1ea-a297188f0bbb</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1119,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2753141762-controle-longa-distncia-jfa-aqua-1200-metros-preto-completo-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D578ea4de-b72c-475a-a702-ddfcd22ef80a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2753141762-controle-longa-distncia-jfa-aqua-1200-metros-preto-completo-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D01d5f9ed-8810-49fb-b1ea-a297188f0bbb</t>
         </is>
       </c>
     </row>
@@ -1091,13 +1131,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>736.61</v>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1110,7 +1154,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:579560342#searchVariation=MLB24006449&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=578ea4de-b72c-475a-a702-ddfcd22ef80a</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:579560342#searchVariation=MLB24006449&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=01d5f9ed-8810-49fb-b1ea-a297188f0bbb</t>
         </is>
       </c>
     </row>
@@ -1122,13 +1166,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>76.5</v>
       </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1141,7 +1189,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2715542194-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D578ea4de-b72c-475a-a702-ddfcd22ef80a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2715542194-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D01d5f9ed-8810-49fb-b1ea-a297188f0bbb</t>
         </is>
       </c>
     </row>

--- a/dados/supremadistribuidoraeireli.xlsx
+++ b/dados/supremadistribuidoraeireli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,45 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>loja</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>nome</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>modelo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>preco</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>politica</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -473,723 +483,974 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>657.1900000000001</v>
+          <t>supremadistribuidoraeireli</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>523.63</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:579560342#searchVariation=MLB24834408&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=01d5f9ed-8810-49fb-b1ea-a297188f0bbb</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:579560342#searchVariation=MLB21455208&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=a3f2dad8-40c3-4c05-ad7b-79592a9a75b6</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>523.63</v>
+          <t>supremadistribuidoraeireli</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>657.1900000000001</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:579560342#searchVariation=MLB21455208&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=01d5f9ed-8810-49fb-b1ea-a297188f0bbb</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:579560342#searchVariation=MLB24834408&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=a3f2dad8-40c3-4c05-ad7b-79592a9a75b6</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>supremadistribuidoraeireli</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>ACQUA</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="E4" t="n">
         <v>69.43000000000001</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Baixo</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:579560342#searchVariation=MLB27687422&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=01d5f9ed-8810-49fb-b1ea-a297188f0bbb</t>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:579560342#searchVariation=MLB27687422&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=a3f2dad8-40c3-4c05-ad7b-79592a9a75b6</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>supremadistribuidoraeireli</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Fonte Carregador Bob Storm 200a Slim Bivolt Automático - Jfa Cor Preto</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>FONTE 200 BOB</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
         <v>624.33</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-bob-storm-200a-slim-bivolt-automatico-jfa-cor-preto/p/MLB27156459?pdp_filters=seller_id:579560342#searchVariation=MLB27156459&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=01d5f9ed-8810-49fb-b1ea-a297188f0bbb</t>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-bob-storm-200a-slim-bivolt-automatico-jfa-cor-preto/p/MLB27156459?pdp_filters=seller_id:579560342#searchVariation=MLB27156459&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=a3f2dad8-40c3-4c05-ad7b-79592a9a75b6</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>supremadistribuidoraeireli</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="E6" t="n">
         <v>64.89</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:579560342#searchVariation=MLB34210379&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=01d5f9ed-8810-49fb-b1ea-a297188f0bbb</t>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:579560342#searchVariation=MLB34210379&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=a3f2dad8-40c3-4c05-ad7b-79592a9a75b6</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Alcance De 1200 Metros</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>64.89</v>
+          <t>supremadistribuidoraeireli</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fonte Carregador Jfa 70 Amperes Slim Bivolt C/ Voltímetro </t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>519.39</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB34245679?pdp_filters=seller_id:579560342#searchVariation=MLB34245679&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=01d5f9ed-8810-49fb-b1ea-a297188f0bbb</t>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2808437099-fonte-carregador-jfa-70-amperes-slim-bivolt-c-voltimetro-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da3f2dad8-40c3-4c05-ad7b-79592a9a75b6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Alcance De 1200 Metros</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>64.89</v>
+          <t>supremadistribuidoraeireli</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>694.8200000000001</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB33922926?pdp_filters=seller_id:579560342#searchVariation=MLB33922926&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=01d5f9ed-8810-49fb-b1ea-a297188f0bbb</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2753133396-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da3f2dad8-40c3-4c05-ad7b-79592a9a75b6</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>694.8200000000001</v>
+          <t>supremadistribuidoraeireli</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Conversor Rca Remoto Slim Automotivo Jfa 12v</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2753133396-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D01d5f9ed-8810-49fb-b1ea-a297188f0bbb</t>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2131558675-conversor-rca-remoto-slim-automotivo-jfa-12v-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da3f2dad8-40c3-4c05-ad7b-79592a9a75b6</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Carregador Jfa 70 Amperes Slim Bivolt C/ Voltímetro </t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>519.39</v>
+          <t>supremadistribuidoraeireli</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Alcance De 1200 Metros</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>64.89</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2808437099-fonte-carregador-jfa-70-amperes-slim-bivolt-c-voltimetro-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D01d5f9ed-8810-49fb-b1ea-a297188f0bbb</t>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB33922926?pdp_filters=seller_id:579560342#searchVariation=MLB33922926&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=a3f2dad8-40c3-4c05-ad7b-79592a9a75b6</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>supremadistribuidoraeireli</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t xml:space="preserve">Controle Longa Distancia Jfa K1200 Alcance 1200 Mt </t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="E11" t="n">
         <v>81.8</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2715487599-controle-longa-distancia-jfa-k1200-alcance-1200-mt-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D01d5f9ed-8810-49fb-b1ea-a297188f0bbb</t>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2715487599-controle-longa-distancia-jfa-k1200-alcance-1200-mt-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da3f2dad8-40c3-4c05-ad7b-79592a9a75b6</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>supremadistribuidoraeireli</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>Controle Longa Distancia Jfa K600 600 Metros Completo</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>K600</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="E12" t="n">
         <v>60.8</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2069718298-controle-longa-distancia-jfa-k600-600-metros-completo-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D01d5f9ed-8810-49fb-b1ea-a297188f0bbb</t>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2069718298-controle-longa-distancia-jfa-k600-600-metros-completo-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da3f2dad8-40c3-4c05-ad7b-79592a9a75b6</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Aqua 1200metros Branco Completo</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>supremadistribuidoraeireli</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa Aqua 1200 Metros Preto Completo</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="E13" t="n">
         <v>90.98999999999999</v>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2753158506-controle-longa-distncia-jfa-aqua-1200metros-branco-completo-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D01d5f9ed-8810-49fb-b1ea-a297188f0bbb</t>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2753141762-controle-longa-distncia-jfa-aqua-1200-metros-preto-completo-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da3f2dad8-40c3-4c05-ad7b-79592a9a75b6</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr P/aparelho Original</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CONTROLE WR</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>98.98</v>
+          <t>supremadistribuidoraeireli</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Filtro Anti-ruido Jfa Com Blindagem Eletromagnética 20/20k</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2069705706-controle-longa-distancia-jfa-redline-wr-paparelho-original-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D01d5f9ed-8810-49fb-b1ea-a297188f0bbb</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2139862487-filtro-anti-ruido-jfa-com-blindagem-eletromagnetica-2020k-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da3f2dad8-40c3-4c05-ad7b-79592a9a75b6</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa Storm 200a Monovolt Sci 220v</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>815.66</v>
+          <t>supremadistribuidoraeireli</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa Redline Wr P/aparelho Original</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>CONTROLE WR</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>98.98</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3248034663-fonte-carregador-automotiva-jfa-storm-200a-monovolt-sci-220v-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D01d5f9ed-8810-49fb-b1ea-a297188f0bbb</t>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2069705706-controle-longa-distancia-jfa-redline-wr-paparelho-original-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da3f2dad8-40c3-4c05-ad7b-79592a9a75b6</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Filtro Anti-ruido Jfa Com Blindagem Eletromagnética 20/20k</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>61.2</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>supremadistribuidoraeireli</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Carregador Jfa Storm 200a 12v 14,4v Smart Cca Sci 220v Mono</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>FONTE 200 MONO</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>736.61</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2139862487-filtro-anti-ruido-jfa-com-blindagem-eletromagnetica-2020k-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D01d5f9ed-8810-49fb-b1ea-a297188f0bbb</t>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3246945241-carregador-jfa-storm-200a-12v-144v-smart-cca-sci-220v-mono-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da3f2dad8-40c3-4c05-ad7b-79592a9a75b6</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Carregador De Bateria Carro Jfa 60a Redline Sci Portatil</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>565.7</v>
+          <t>supremadistribuidoraeireli</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 200a Storm Voltímetro Digital Mono 220v</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200 MONO</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>736.61</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2751443168-carregador-de-bateria-carro-jfa-60a-redline-sci-portatil-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D01d5f9ed-8810-49fb-b1ea-a297188f0bbb</t>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3250326563-fonte-automotiva-jfa-200a-storm-voltimetro-digital-mono-220v-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da3f2dad8-40c3-4c05-ad7b-79592a9a75b6</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Carregador Jfa Storm 200a 12v 14,4v Smart Cca Sci 220v Mono</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>supremadistribuidoraeireli</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva Jfa Storm 200a Monovolt Sci 220v</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>FONTE 200 MONO</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>736.61</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="E18" t="n">
+        <v>815.66</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3246945241-carregador-jfa-storm-200a-12v-144v-smart-cca-sci-220v-mono-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D01d5f9ed-8810-49fb-b1ea-a297188f0bbb</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3248034663-fonte-carregador-automotiva-jfa-storm-200a-monovolt-sci-220v-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da3f2dad8-40c3-4c05-ad7b-79592a9a75b6</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a Storm Voltímetro Digital Mono 220v</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>736.61</v>
+          <t>supremadistribuidoraeireli</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Carregador De Bateria Carro Jfa 60a Redline Sci Portatil</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>565.7</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3250326563-fonte-automotiva-jfa-200a-storm-voltimetro-digital-mono-220v-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D01d5f9ed-8810-49fb-b1ea-a297188f0bbb</t>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2751443168-carregador-de-bateria-carro-jfa-60a-redline-sci-portatil-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da3f2dad8-40c3-4c05-ad7b-79592a9a75b6</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Aqua 1200 Metros Preto Completo</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>supremadistribuidoraeireli</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa Aqua 1200metros Branco Completo</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C20" t="n">
+      <c r="E20" t="n">
         <v>90.98999999999999</v>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2753141762-controle-longa-distncia-jfa-aqua-1200-metros-preto-completo-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D01d5f9ed-8810-49fb-b1ea-a297188f0bbb</t>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2753158506-controle-longa-distncia-jfa-aqua-1200metros-branco-completo-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da3f2dad8-40c3-4c05-ad7b-79592a9a75b6</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>supremadistribuidoraeireli</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>FONTE 200 MONO</t>
         </is>
       </c>
-      <c r="C21" t="n">
+      <c r="E21" t="n">
         <v>736.61</v>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:579560342#searchVariation=MLB24006449&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=01d5f9ed-8810-49fb-b1ea-a297188f0bbb</t>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:579560342#searchVariation=MLB24006449&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=a3f2dad8-40c3-4c05-ad7b-79592a9a75b6</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>supremadistribuidoraeireli</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Alcance De 1200 Metros</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>64.89</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB34245679?pdp_filters=seller_id:579560342#searchVariation=MLB34245679&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=a3f2dad8-40c3-4c05-ad7b-79592a9a75b6</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>supremadistribuidoraeireli</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>Controle Longa Distancia Jfa Redline Wr P Aparelho Original</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>CONTROLE WR</t>
         </is>
       </c>
-      <c r="C22" t="n">
+      <c r="E23" t="n">
         <v>76.5</v>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Baixo</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2715542194-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D01d5f9ed-8810-49fb-b1ea-a297188f0bbb</t>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2715542194-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da3f2dad8-40c3-4c05-ad7b-79592a9a75b6</t>
         </is>
       </c>
     </row>

--- a/dados/supremadistribuidoraeireli.xlsx
+++ b/dados/supremadistribuidoraeireli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,20 +493,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>523.63</v>
+        <v>657.1900000000001</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -516,19 +516,19 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:579560342#searchVariation=MLB21455208&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=a3f2dad8-40c3-4c05-ad7b-79592a9a75b6</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:579560342#searchVariation=MLB24834408&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=e73eba12-167a-44e2-994c-3bf7f7f8d4e9</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,20 +538,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>657.1900000000001</v>
+        <v>774.88</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -561,19 +561,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:579560342#searchVariation=MLB24834408&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=a3f2dad8-40c3-4c05-ad7b-79592a9a75b6</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:579560342#searchVariation=MLB24006449&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=e73eba12-167a-44e2-994c-3bf7f7f8d4e9</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -583,22 +583,18 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Conversor Rca Remoto Slim Automotivo Jfa 12v</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>69.43000000000001</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
+        <v>40.75</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
           <t>NA</t>
@@ -606,19 +602,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:579560342#searchVariation=MLB27687422&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=a3f2dad8-40c3-4c05-ad7b-79592a9a75b6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2131558675-conversor-rca-remoto-slim-automotivo-jfa-12v-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De73eba12-167a-44e2-994c-3bf7f7f8d4e9</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -628,16 +624,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bob Storm 200a Slim Bivolt Automático - Jfa Cor Preto</t>
+          <t>Carregador Jfa Storm 200a 12v 14,4v Smart Cca Sci 220v Mono</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>624.33</v>
+        <v>736.61</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -656,14 +652,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-bob-storm-200a-slim-bivolt-automatico-jfa-cor-preto/p/MLB27156459?pdp_filters=seller_id:579560342#searchVariation=MLB27156459&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=a3f2dad8-40c3-4c05-ad7b-79592a9a75b6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3246945241-carregador-jfa-storm-200a-12v-144v-smart-cca-sci-220v-mono-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De73eba12-167a-44e2-994c-3bf7f7f8d4e9</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -701,14 +697,14 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:579560342#searchVariation=MLB34210379&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=a3f2dad8-40c3-4c05-ad7b-79592a9a75b6</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:579560342#searchVariation=MLB34210379&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=e73eba12-167a-44e2-994c-3bf7f7f8d4e9</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -718,20 +714,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Carregador Jfa 70 Amperes Slim Bivolt C/ Voltímetro </t>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>519.39</v>
+        <v>694.8200000000001</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -741,19 +737,19 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2808437099-fonte-carregador-jfa-70-amperes-slim-bivolt-c-voltimetro-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da3f2dad8-40c3-4c05-ad7b-79592a9a75b6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2753133396-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De73eba12-167a-44e2-994c-3bf7f7f8d4e9</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -763,20 +759,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt</t>
+          <t>Controle Longa Distancia Jfa Redline Wr P/aparelho Original</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>694.8200000000001</v>
+        <v>100.75</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -791,14 +787,14 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2753133396-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da3f2dad8-40c3-4c05-ad7b-79592a9a75b6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2069705706-controle-longa-distancia-jfa-redline-wr-paparelho-original-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De73eba12-167a-44e2-994c-3bf7f7f8d4e9</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -808,18 +804,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Conversor Rca Remoto Slim Automotivo Jfa 12v</t>
+          <t>Controle Longa Distancia Jfa K1200 Alcance De 1200 Metros</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
+        <v>64.89</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>NA</t>
@@ -827,19 +827,19 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2131558675-conversor-rca-remoto-slim-automotivo-jfa-12v-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da3f2dad8-40c3-4c05-ad7b-79592a9a75b6</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB33922926?pdp_filters=seller_id:579560342#searchVariation=MLB33922926&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=e73eba12-167a-44e2-994c-3bf7f7f8d4e9</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -849,20 +849,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Alcance De 1200 Metros</t>
+          <t>Fonte Carregador Bob Storm 200a Slim Bivolt Automático - Jfa Cor Preto</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>64.89</v>
+        <v>624.33</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -877,14 +877,14 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB33922926?pdp_filters=seller_id:579560342#searchVariation=MLB33922926&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=a3f2dad8-40c3-4c05-ad7b-79592a9a75b6</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-bob-storm-200a-slim-bivolt-automatico-jfa-cor-preto/p/MLB27156459?pdp_filters=seller_id:579560342#searchVariation=MLB27156459&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=e73eba12-167a-44e2-994c-3bf7f7f8d4e9</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -894,22 +894,18 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Longa Distancia Jfa K1200 Alcance 1200 Mt </t>
+          <t>Filtro Anti-ruido Jfa Com Blindagem Eletromagnética 20/20k</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>81.8</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>61.2</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
           <t>NA</t>
@@ -922,14 +918,14 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2715487599-controle-longa-distancia-jfa-k1200-alcance-1200-mt-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da3f2dad8-40c3-4c05-ad7b-79592a9a75b6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2139862487-filtro-anti-ruido-jfa-com-blindagem-eletromagnetica-2020k-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De73eba12-167a-44e2-994c-3bf7f7f8d4e9</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -939,16 +935,16 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 600 Metros Completo</t>
+          <t>Controle Longa Distancia Jfa K1200 Alcance De 1200 Metros</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>60.8</v>
+        <v>64.89</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -967,14 +963,14 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2069718298-controle-longa-distancia-jfa-k600-600-metros-completo-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da3f2dad8-40c3-4c05-ad7b-79592a9a75b6</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB34245679?pdp_filters=seller_id:579560342#searchVariation=MLB34245679&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=e73eba12-167a-44e2-994c-3bf7f7f8d4e9</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -984,18 +980,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Aqua 1200 Metros Preto Completo</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>90.98999999999999</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
+        <v>69.43000000000001</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1003,19 +1003,19 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2753141762-controle-longa-distncia-jfa-aqua-1200-metros-preto-completo-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da3f2dad8-40c3-4c05-ad7b-79592a9a75b6</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:579560342#searchVariation=MLB27687422&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=e73eba12-167a-44e2-994c-3bf7f7f8d4e9</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Filtro Anti-ruido Jfa Com Blindagem Eletromagnética 20/20k</t>
+          <t>Controle Longa Distância Jfa Aqua 1200 Metros Preto Completo</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1034,7 +1034,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>61.2</v>
+        <v>90.98999999999999</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
@@ -1044,19 +1044,19 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2139862487-filtro-anti-ruido-jfa-com-blindagem-eletromagnetica-2020k-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da3f2dad8-40c3-4c05-ad7b-79592a9a75b6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2753141762-controle-longa-distncia-jfa-aqua-1200-metros-preto-completo-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De73eba12-167a-44e2-994c-3bf7f7f8d4e9</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1066,20 +1066,20 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr P/aparelho Original</t>
+          <t>Controle Longa Distancia Jfa K600 600 Metros Completo</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CONTROLE WR</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>98.98</v>
+        <v>60.8</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1089,19 +1089,19 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2069705706-controle-longa-distancia-jfa-redline-wr-paparelho-original-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da3f2dad8-40c3-4c05-ad7b-79592a9a75b6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2069718298-controle-longa-distancia-jfa-k600-600-metros-completo-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De73eba12-167a-44e2-994c-3bf7f7f8d4e9</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1111,22 +1111,18 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Carregador Jfa Storm 200a 12v 14,4v Smart Cca Sci 220v Mono</t>
+          <t>Controle Longa Distância Jfa Aqua 1200metros Branco Completo</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>736.61</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>90.98999999999999</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1134,19 +1130,19 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3246945241-carregador-jfa-storm-200a-12v-144v-smart-cca-sci-220v-mono-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da3f2dad8-40c3-4c05-ad7b-79592a9a75b6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2753158506-controle-longa-distncia-jfa-aqua-1200metros-branco-completo-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De73eba12-167a-44e2-994c-3bf7f7f8d4e9</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1156,16 +1152,16 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a Storm Voltímetro Digital Mono 220v</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>736.61</v>
+        <v>493.42</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1184,14 +1180,14 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3250326563-fonte-automotiva-jfa-200a-storm-voltimetro-digital-mono-220v-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da3f2dad8-40c3-4c05-ad7b-79592a9a75b6</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:579560342#searchVariation=MLB21455208&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=e73eba12-167a-44e2-994c-3bf7f7f8d4e9</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1210,11 +1206,11 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>815.66</v>
+        <v>774.88</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1229,14 +1225,14 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3248034663-fonte-carregador-automotiva-jfa-storm-200a-monovolt-sci-220v-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da3f2dad8-40c3-4c05-ad7b-79592a9a75b6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3248034663-fonte-carregador-automotiva-jfa-storm-200a-monovolt-sci-220v-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De73eba12-167a-44e2-994c-3bf7f7f8d4e9</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1246,16 +1242,16 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Carregador De Bateria Carro Jfa 60a Redline Sci Portatil</t>
+          <t xml:space="preserve">Controle Longa Distancia Jfa K1200 Alcance 1200 Mt </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>565.7</v>
+        <v>81.8</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1274,14 +1270,14 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2751443168-carregador-de-bateria-carro-jfa-60a-redline-sci-portatil-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da3f2dad8-40c3-4c05-ad7b-79592a9a75b6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2715487599-controle-longa-distancia-jfa-k1200-alcance-1200-mt-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De73eba12-167a-44e2-994c-3bf7f7f8d4e9</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1291,18 +1287,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Aqua 1200metros Branco Completo</t>
+          <t>Carregador De Bateria Carro Jfa 60a Redline Sci Portatil</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>90.98999999999999</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
+        <v>565.7</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1310,19 +1310,19 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2753158506-controle-longa-distncia-jfa-aqua-1200metros-branco-completo-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da3f2dad8-40c3-4c05-ad7b-79592a9a75b6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2751443168-carregador-de-bateria-carro-jfa-60a-redline-sci-portatil-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De73eba12-167a-44e2-994c-3bf7f7f8d4e9</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>Fonte Automotiva Jfa 200a Storm Voltímetro Digital Mono 220v</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1360,14 +1360,14 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:579560342#searchVariation=MLB24006449&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=a3f2dad8-40c3-4c05-ad7b-79592a9a75b6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3250326563-fonte-automotiva-jfa-200a-storm-voltimetro-digital-mono-220v-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De73eba12-167a-44e2-994c-3bf7f7f8d4e9</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1377,20 +1377,20 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Alcance De 1200 Metros</t>
+          <t>Controle Longa Distancia Jfa Redline Wr P Aparelho Original</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>64.89</v>
+        <v>76.5</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1405,52 +1405,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB34245679?pdp_filters=seller_id:579560342#searchVariation=MLB34245679&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=a3f2dad8-40c3-4c05-ad7b-79592a9a75b6</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>30/07/2024</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>supremadistribuidoraeireli</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Controle Longa Distancia Jfa Redline Wr P Aparelho Original</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>CONTROLE WR</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>76.5</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2715542194-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da3f2dad8-40c3-4c05-ad7b-79592a9a75b6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2715542194-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De73eba12-167a-44e2-994c-3bf7f7f8d4e9</t>
         </is>
       </c>
     </row>
